--- a/data/trans_bre/P32A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P32A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,86%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,89%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,35; 0,85</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; -1,8</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 1,62</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; -0,66</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 151,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,51</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,14%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; -0,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 0,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; -0,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,67; 2,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 21,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,33; 10,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,3; 1,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,55; 301,93</t>
         </is>
       </c>
     </row>
@@ -825,37 +825,37 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>431,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,18%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,82; 1,88</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 1,04</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 5,06</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-2,03; 1,58</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,84; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,9; 194,21</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,02%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; -0,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; -0,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 0,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 1,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,11; 2,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,9; -32,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,39; 16,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,15; 74,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-73,89%</t>
+          <t>-72,49%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; -0,66</t>
+          <t>-6,28; -0,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,51</t>
+          <t>-100,0; 8,06</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,14%</t>
+          <t>27,36%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 2,27</t>
+          <t>-1,07; 1,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 301,93</t>
+          <t>-64,92; 228,28</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,18%</t>
+          <t>-18,56%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,58</t>
+          <t>-2,03; 1,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-78,9; 194,21</t>
+          <t>-78,57; 189,64</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-13,02%</t>
+          <t>-22,13%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 1,05</t>
+          <t>-1,41; 0,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,15; 74,36</t>
+          <t>-65,48; 63,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Estudios-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 0,85</t>
+          <t>-2,33; 0,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; -1,8</t>
+          <t>-5,36; -1,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 1,62</t>
+          <t>-5,13; 1,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; -0,55</t>
+          <t>-6,35; -0,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 151,96</t>
+          <t>-100,0; 98,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 8,06</t>
+          <t>-100,0; 22,98</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,75; -0,28</t>
+          <t>-1,6; -0,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,13</t>
+          <t>-2,72; 0,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; -0,14</t>
+          <t>-2,18; -0,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,79</t>
+          <t>-1,01; 1,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 21,78</t>
+          <t>-100,0; 66,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,33; 10,22</t>
+          <t>-80,5; 15,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-88,3; 1,12</t>
+          <t>-92,01; 1,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,92; 228,28</t>
+          <t>-69,15; 240,1</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,88</t>
+          <t>-0,81; 1,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,04</t>
+          <t>-1,21; 1,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,06</t>
+          <t>0,5; 5,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,52</t>
+          <t>-2,21; 1,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-26,84; —</t>
+          <t>-26,26; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-78,57; 189,64</t>
+          <t>-80,9; 190,91</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,32; -0,13</t>
+          <t>-1,33; -0,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; -0,81</t>
+          <t>-2,63; -0,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,28</t>
+          <t>-1,63; 0,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,86</t>
+          <t>-1,36; 0,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-92,11; 2,66</t>
+          <t>-92,29; -2,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-86,9; -32,76</t>
+          <t>-85,56; -24,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,39; 16,14</t>
+          <t>-66,29; 24,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,48; 63,87</t>
+          <t>-64,27; 52,56</t>
         </is>
       </c>
     </row>
